--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ SIT_QuanlyctyBDS.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ SIT_QuanlyctyBDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B6671-2938-49B7-A9BE-408AC3C5F388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECCEAD-6A8F-4DA2-806E-8A8D88E935D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="260">
   <si>
     <t>Author</t>
   </si>
@@ -676,9 +676,6 @@
     <t xml:space="preserve">  Admin sửa thông tin tài khoản trong web Admin thì danh sách nhân sự sẽ được cập nhật theo và hiển thị ở mobile app user có thể xem được </t>
   </si>
   <si>
-    <t xml:space="preserve">  Admin sửa thông tin tài khoản trong web Admin thì danh sách dự án sẽ được cập nhật theo và hiển thị ở mobile app user có thể xem được </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Admin thêm phòng ban trong WebAdmin thì khi thêm  tài khoản phòng ban đó sẽ xuất hiện trong combobox cho Admin lựa chọn </t>
   </si>
   <si>
@@ -689,6 +686,284 @@
   </si>
   <si>
     <t xml:space="preserve">  Admin xóa phòng ban trong WebAdmin thì khi thêm  tài khoản phòng ban đó sẽ không xuất hiện trong combobox  cho Admin lựa chọn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị 3 mục Chính sách công ty , phòng ban , sơ đồ tổ chức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị 3 mục Chính sách công ty , phòng ban  , sơ đồ tổ chức </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị 3 mục Chính sách công ty ,phòng ban  , sơ đồ tổ chức </t>
+  </si>
+  <si>
+    <t>Kiễm traAdmin khóa tài khoản trong Wed Admin thì User không thể đăng nhập vào hệ thống App bằng tài khoản đó .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TR-BDS-QLTT-8</t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng  Dự án BDS của mình 
+</t>
+  </si>
+  <si>
+    <t>Admin đăng nhập vào WebAdmin bất Động sản bằng  tài khoản  admin</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Ở trang chủ , nhấn chọn " quản lý dựa án BDS "</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách toàn bộ dự án trong giao diện chính bao gồm : hình ảnh , tên dự án , vị trí , số tiền , tổng quan , pháp lý , bảng giá , CSBH dành cho NV , CSBH dành cho khách hàng , Prochure, Đơn vị dự án , trạng thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhấn nút " thêm dự án " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao dien thêm  Dự án BDS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập thông tin dự án 
+- tên 
+- vị trí 
+- só tiền </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tên : dự án chung cư Tam phú 
+- vị trí : 45 Cây keo , q Thủ đức 
+- giá : 1 tỷ 3</t>
+  </si>
+  <si>
+    <t>Nhấn nút " chọn tệp "  của các trường thông tin  
+-tổng quan , 
+-pháp lý ,
+- bảng giá ,
+- CSBH dành cho NV ,
+- CSBH dành cho khách hàng
+ -Prochure,
+- Đơn vị dự án ,</t>
+  </si>
+  <si>
+    <t>truongquan.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chọn trạng thái trong dropbox </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang triển khai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo thêm  Dự án BDS  thành công </t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm traAdmin thêm vị trí dự án vào WebAdmin thì hệ thống sẽ định vị và người dùng có thể xem vị trí dự án đó trên bản đồ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có danh sách dự án bao gồm : 
+- tên : dự án chung cư Tam phú 
+- vị trí : 45 Cây keo , q Thủ đức 
+- giá : 1 tỷ 3 </t>
+  </si>
+  <si>
+    <t>Ở trang chủ , nhấn chọn mục  " Dự án Bất Động Sản "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị danh sách toàn bộ các dự án </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong giao diện danh sách dự án, nhấn chọn 1 dự án </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị các mục thông tin :
+- tổng quan 
+- pháp lý 
+- bảng giá 
+- CSBH cho nhân viên 
+- CSBH cho khách hàng 
+- Prochure 
+- Đơn vị dự án 
+- Vị trí </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn chọn mục thông tin " Vị trí  "  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị định vị của dự án tương ứng với địa chỉ </t>
+  </si>
+  <si>
+    <t>Trong giao diện danh sách dự án, nhấn nút " Đang triễn khai "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các dự án đang triển khai </t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-11</t>
+  </si>
+  <si>
+    <t>TR-BDS-QLTT-13</t>
+  </si>
+  <si>
+    <t>TR-BDS-QLTT-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Admin sửa thông tin dự án  trong web Admin thì danh sách dự án sẽ được cập nhật theo và hiển thị ở mobile app user có thể xem được </t>
+  </si>
+  <si>
+    <t>Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản  admin</t>
+  </si>
+  <si>
+    <t>Ở trang chủ , nhấn chọn   " quản lý dự án "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong danh sách dự án , nhấn chọn nút  sửa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiễn thị giao diện sửa dự án </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chỉnh sửa thông tin dự án 
+- tên 
+- vị trí 
+- só tiền </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quay lại giao diện danh sách dự án </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thông tin được thay đổi trong danh sách </t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin truy cập vào website BDS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">người dùng truy cập vào App Bất Động Sản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có tài khoản Admin để đăng nhập vào WebAdmin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị 3 mục Chính sách công ty , Phòng ban  , sơ đồ tổ chức </t>
+  </si>
+  <si>
+    <t>Chọn " Phòng ban"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diện Phòng ban </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chọn " thêm phòng ban " </t>
+  </si>
+  <si>
+    <t>NHập " tên phòng ban "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng kinh doanh </t>
+  </si>
+  <si>
+    <t>Nhấn " Lưu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo " thêm phòng thành công " </t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhấn nút " Thêm tài khoản "</t>
+  </si>
+  <si>
+    <t>Nhập Mã nhân viên 
+-Nhập tên người dùng
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ 
+-NHập phòng ban 
+-Nhập Nhóm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Nhóm : 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra   Admin thêm phòng ban trong WebAdmin thì khi thêm  tài khoản phòng ban đó sẽ xuất hiện trong combobox cho Admin lựa chọn </t>
+  </si>
+  <si>
+    <t>Nhấn icon "Sửa"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phòng kế toán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo " cập nhật phòng thành công " </t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- chức vụ : nhân viên 
+- Phòng ban : kế toán 
+- Nhóm : 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị 3 mục chính sách,  Phòng Ban , sơ đồ tổ chức </t>
+  </si>
+  <si>
+    <t>Trong dropbox thông tin , nhấn chọn  Phòng Ban</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị danh sách các  Phòng Ban bao gồm " tên  Phòng Ban, tên nhóm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn icon " xóa " trong danh sách  Phòng Ban
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị form xác nhận xóa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn nút " xác nhận " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xóa khỏi danh sách </t>
+  </si>
+  <si>
+    <t>TC-BDS-QLTT-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trong giao diện thêm tài khoản ở trường thông tin phòng ban </t>
+  </si>
+  <si>
+    <t xml:space="preserve">phòng ban bị xóa  sẽ không xuất hiện trong combobox  cho Admin lựa chọn </t>
   </si>
 </sst>
 </file>
@@ -847,7 +1122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1357,11 +1632,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1500,202 +1845,280 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2037,31 +2460,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="54"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -2134,19 +2557,19 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
@@ -2155,54 +2578,54 @@
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2229,7 +2652,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="17"/>
@@ -2423,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="17"/>
@@ -2443,7 +2866,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="17"/>
@@ -2463,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="17"/>
@@ -2483,7 +2906,7 @@
         <v>35</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="17"/>
@@ -2503,7 +2926,7 @@
         <v>35</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="17"/>
@@ -2523,7 +2946,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="17"/>
@@ -2543,7 +2966,7 @@
         <v>35</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="17"/>
@@ -2557,13 +2980,13 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="16" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="17"/>
@@ -2573,17 +2996,17 @@
         <v>11</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="17"/>
@@ -2593,17 +3016,17 @@
         <v>11</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="17"/>
@@ -2613,13 +3036,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="39" t="s">
@@ -2675,11 +3098,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2697,17 +3120,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2746,33 +3169,33 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="49"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90">
+      <c r="A5" s="97">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="108" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="43">
@@ -2785,14 +3208,14 @@
       <c r="I5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="99"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="43">
         <v>2</v>
       </c>
@@ -2801,16 +3224,16 @@
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="87"/>
+        <v>187</v>
+      </c>
+      <c r="J6" s="94"/>
     </row>
     <row r="7" spans="1:10" s="5" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="99"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="43">
         <v>3</v>
       </c>
@@ -2821,14 +3244,14 @@
       <c r="I7" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="1:10" s="5" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="99"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="43">
         <v>4</v>
       </c>
@@ -2839,14 +3262,14 @@
       <c r="I8" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="87"/>
+      <c r="J8" s="94"/>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="99"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="43">
         <v>5</v>
       </c>
@@ -2859,14 +3282,14 @@
       <c r="I9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="87"/>
+      <c r="J9" s="94"/>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="109"/>
       <c r="F10" s="43">
         <v>6</v>
       </c>
@@ -2877,14 +3300,14 @@
       <c r="I10" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="87"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="43">
         <v>7</v>
       </c>
@@ -2895,14 +3318,14 @@
       <c r="I11" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="43">
         <v>8</v>
       </c>
@@ -2913,14 +3336,14 @@
       <c r="I12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="99"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="43">
         <v>9</v>
       </c>
@@ -2931,14 +3354,14 @@
       <c r="I13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="94"/>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="43">
         <v>10</v>
       </c>
@@ -2949,22 +3372,22 @@
       <c r="I14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="J14" s="88"/>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90">
+      <c r="A15" s="97">
         <v>1</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="108" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="43">
@@ -2977,14 +3400,14 @@
       <c r="I15" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="86"/>
+      <c r="J15" s="110"/>
     </row>
     <row r="16" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="99"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="43">
         <v>2</v>
       </c>
@@ -2993,16 +3416,16 @@
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="87"/>
+        <v>186</v>
+      </c>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="99"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="43">
         <v>3</v>
       </c>
@@ -3013,14 +3436,14 @@
       <c r="I17" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="87"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="99"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="43">
         <v>4</v>
       </c>
@@ -3031,14 +3454,14 @@
       <c r="I18" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="87"/>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:10" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="99"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="43">
         <v>5</v>
       </c>
@@ -3049,14 +3472,14 @@
         <v>69</v>
       </c>
       <c r="I19" s="39"/>
-      <c r="J19" s="87"/>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="43">
         <v>6</v>
       </c>
@@ -3067,14 +3490,14 @@
       <c r="I20" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="87"/>
+      <c r="J20" s="94"/>
     </row>
     <row r="21" spans="1:10" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="99"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="43">
         <v>7</v>
       </c>
@@ -3087,14 +3510,14 @@
       <c r="I21" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="87"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="99"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="109"/>
       <c r="F22" s="43">
         <v>8</v>
       </c>
@@ -3105,14 +3528,14 @@
       <c r="I22" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="87"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="99"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="109"/>
       <c r="F23" s="43">
         <v>9</v>
       </c>
@@ -3123,14 +3546,14 @@
       <c r="I23" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="J23" s="87"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="99"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="109"/>
       <c r="F24" s="43">
         <v>10</v>
       </c>
@@ -3141,14 +3564,14 @@
       <c r="I24" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J24" s="87"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="99"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="109"/>
       <c r="F25" s="43">
         <v>11</v>
       </c>
@@ -3159,14 +3582,14 @@
       <c r="I25" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="87"/>
+      <c r="J25" s="94"/>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="99"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="109"/>
       <c r="F26" s="43">
         <v>12</v>
       </c>
@@ -3177,14 +3600,14 @@
       <c r="I26" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="87"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="91"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="99"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="109"/>
       <c r="F27" s="43">
         <v>13</v>
       </c>
@@ -3197,22 +3620,22 @@
       <c r="I27" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="J27" s="88"/>
+      <c r="J27" s="95"/>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="90">
+      <c r="A28" s="97">
         <v>1</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="108" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="43">
@@ -3225,14 +3648,14 @@
       <c r="I28" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="86"/>
+      <c r="J28" s="110"/>
     </row>
     <row r="29" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="99"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="109"/>
       <c r="F29" s="43">
         <v>2</v>
       </c>
@@ -3241,16 +3664,16 @@
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="87"/>
+        <v>188</v>
+      </c>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="99"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="109"/>
       <c r="F30" s="43">
         <v>3</v>
       </c>
@@ -3261,14 +3684,14 @@
       <c r="I30" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="91"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="99"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="109"/>
       <c r="F31" s="43">
         <v>4</v>
       </c>
@@ -3281,14 +3704,14 @@
       <c r="I31" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="94"/>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="99"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="109"/>
       <c r="F32" s="43">
         <v>5</v>
       </c>
@@ -3299,14 +3722,14 @@
       <c r="I32" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="94"/>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="99"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="43">
         <v>6</v>
       </c>
@@ -3319,14 +3742,14 @@
       <c r="I33" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="94"/>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="91"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="99"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="109"/>
       <c r="F34" s="43">
         <v>7</v>
       </c>
@@ -3337,14 +3760,14 @@
       <c r="I34" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="94"/>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="91"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="99"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="109"/>
       <c r="F35" s="43">
         <v>8</v>
       </c>
@@ -3355,14 +3778,14 @@
       <c r="I35" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="94"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="99"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="107"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="109"/>
       <c r="F36" s="43">
         <v>9</v>
       </c>
@@ -3373,14 +3796,14 @@
       <c r="I36" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J36" s="87"/>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="91"/>
-      <c r="B37" s="93"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="99"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="43">
         <v>10</v>
       </c>
@@ -3391,14 +3814,14 @@
       <c r="I37" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J37" s="87"/>
+      <c r="J37" s="94"/>
     </row>
     <row r="38" spans="1:10" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="91"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="99"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="109"/>
       <c r="F38" s="43">
         <v>11</v>
       </c>
@@ -3409,14 +3832,14 @@
       <c r="I38" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J38" s="87"/>
+      <c r="J38" s="94"/>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="91"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="99"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="43">
         <v>12</v>
       </c>
@@ -3429,22 +3852,22 @@
       <c r="I39" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="J39" s="88"/>
+      <c r="J39" s="95"/>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="90">
+      <c r="A40" s="97">
         <v>1</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="94" t="s">
+      <c r="C40" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="98" t="s">
+      <c r="E40" s="108" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="43">
@@ -3457,14 +3880,14 @@
       <c r="I40" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J40" s="86"/>
+      <c r="J40" s="110"/>
     </row>
     <row r="41" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="99"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="43">
         <v>2</v>
       </c>
@@ -3473,16 +3896,16 @@
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="87"/>
+        <v>187</v>
+      </c>
+      <c r="J41" s="94"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="99"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="43">
         <v>3</v>
       </c>
@@ -3493,14 +3916,14 @@
       <c r="I42" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="J42" s="87"/>
+      <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="99"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="91"/>
+      <c r="E43" s="109"/>
       <c r="F43" s="43">
         <v>4</v>
       </c>
@@ -3513,14 +3936,14 @@
       <c r="I43" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="J43" s="87"/>
+      <c r="J43" s="94"/>
     </row>
     <row r="44" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="99"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="109"/>
       <c r="F44" s="43">
         <v>5</v>
       </c>
@@ -3531,14 +3954,14 @@
       <c r="I44" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="87"/>
+      <c r="J44" s="94"/>
     </row>
     <row r="45" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="99"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="109"/>
       <c r="F45" s="43">
         <v>6</v>
       </c>
@@ -3549,14 +3972,14 @@
       <c r="I45" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J45" s="87"/>
+      <c r="J45" s="94"/>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="91"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="99"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="109"/>
       <c r="F46" s="43">
         <v>7</v>
       </c>
@@ -3567,14 +3990,14 @@
       <c r="I46" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="J46" s="87"/>
+      <c r="J46" s="94"/>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="99"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="109"/>
       <c r="F47" s="43">
         <v>8</v>
       </c>
@@ -3585,22 +4008,22 @@
       <c r="I47" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="88"/>
+      <c r="J47" s="95"/>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="90">
+      <c r="A48" s="97">
         <v>1</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="94" t="s">
+      <c r="C48" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="96" t="s">
+      <c r="D48" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="98" t="s">
+      <c r="E48" s="108" t="s">
         <v>99</v>
       </c>
       <c r="F48" s="43">
@@ -3613,14 +4036,14 @@
       <c r="I48" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J48" s="86"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="99"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="109"/>
       <c r="F49" s="43">
         <v>2</v>
       </c>
@@ -3631,14 +4054,14 @@
       <c r="I49" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="94"/>
     </row>
     <row r="50" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="91"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="99"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="109"/>
       <c r="F50" s="43">
         <v>3</v>
       </c>
@@ -3649,14 +4072,14 @@
       <c r="I50" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="J50" s="87"/>
+      <c r="J50" s="94"/>
     </row>
     <row r="51" spans="1:10" s="5" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="99"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="109"/>
       <c r="F51" s="43">
         <v>4</v>
       </c>
@@ -3667,14 +4090,14 @@
         <v>134</v>
       </c>
       <c r="I51" s="39"/>
-      <c r="J51" s="87"/>
+      <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="91"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="99"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="109"/>
       <c r="F52" s="43">
         <v>5</v>
       </c>
@@ -3685,14 +4108,14 @@
       <c r="I52" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J52" s="87"/>
+      <c r="J52" s="94"/>
     </row>
     <row r="53" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="99"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="109"/>
       <c r="F53" s="43">
         <v>6</v>
       </c>
@@ -3705,14 +4128,14 @@
       <c r="I53" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J53" s="87"/>
+      <c r="J53" s="94"/>
     </row>
     <row r="54" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="91"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="99"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="109"/>
       <c r="F54" s="43">
         <v>7</v>
       </c>
@@ -3723,14 +4146,14 @@
       <c r="I54" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J54" s="87"/>
+      <c r="J54" s="94"/>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="B55" s="93"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="99"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="109"/>
       <c r="F55" s="43">
         <v>8</v>
       </c>
@@ -3741,14 +4164,14 @@
       <c r="I55" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="J55" s="87"/>
+      <c r="J55" s="94"/>
     </row>
     <row r="56" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="91"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="99"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="109"/>
       <c r="F56" s="43">
         <v>9</v>
       </c>
@@ -3759,14 +4182,14 @@
       <c r="I56" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J56" s="87"/>
+      <c r="J56" s="94"/>
     </row>
     <row r="57" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="99"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="109"/>
       <c r="F57" s="43">
         <v>10</v>
       </c>
@@ -3777,14 +4200,14 @@
       <c r="I57" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J57" s="87"/>
+      <c r="J57" s="94"/>
     </row>
     <row r="58" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="91"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="99"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="109"/>
       <c r="F58" s="43">
         <v>11</v>
       </c>
@@ -3795,22 +4218,22 @@
       <c r="I58" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="J58" s="88"/>
+      <c r="J58" s="95"/>
     </row>
     <row r="59" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="90">
+      <c r="A59" s="97">
         <v>1</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="94" t="s">
+      <c r="C59" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="96" t="s">
+      <c r="D59" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="E59" s="98" t="s">
+      <c r="E59" s="108" t="s">
         <v>142</v>
       </c>
       <c r="F59" s="43">
@@ -3823,14 +4246,14 @@
       <c r="I59" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J59" s="86"/>
+      <c r="J59" s="110"/>
     </row>
     <row r="60" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="91"/>
-      <c r="B60" s="93"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="99"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="109"/>
       <c r="F60" s="43">
         <v>2</v>
       </c>
@@ -3841,14 +4264,14 @@
       <c r="I60" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="J60" s="87"/>
+      <c r="J60" s="94"/>
     </row>
     <row r="61" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="91"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="99"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="109"/>
       <c r="F61" s="43">
         <v>3</v>
       </c>
@@ -3859,14 +4282,14 @@
       <c r="I61" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="J61" s="87"/>
+      <c r="J61" s="94"/>
     </row>
     <row r="62" spans="1:10" s="5" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="91"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="99"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="109"/>
       <c r="F62" s="43">
         <v>4</v>
       </c>
@@ -3877,14 +4300,14 @@
         <v>148</v>
       </c>
       <c r="I62" s="39"/>
-      <c r="J62" s="87"/>
+      <c r="J62" s="94"/>
     </row>
     <row r="63" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="91"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="99"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="109"/>
       <c r="F63" s="43">
         <v>5</v>
       </c>
@@ -3895,14 +4318,14 @@
       <c r="I63" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J63" s="87"/>
+      <c r="J63" s="94"/>
     </row>
     <row r="64" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="91"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="99"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="91"/>
+      <c r="E64" s="109"/>
       <c r="F64" s="43">
         <v>6</v>
       </c>
@@ -3915,14 +4338,14 @@
       <c r="I64" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="J64" s="87"/>
+      <c r="J64" s="94"/>
     </row>
     <row r="65" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
-      <c r="B65" s="93"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="99"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="109"/>
       <c r="F65" s="43">
         <v>7</v>
       </c>
@@ -3935,14 +4358,14 @@
       <c r="I65" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="87"/>
+      <c r="J65" s="94"/>
     </row>
     <row r="66" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="91"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="99"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="109"/>
       <c r="F66" s="43">
         <v>8</v>
       </c>
@@ -3953,14 +4376,14 @@
       <c r="I66" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="J66" s="87"/>
+      <c r="J66" s="94"/>
     </row>
     <row r="67" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="91"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="99"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="87"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="109"/>
       <c r="F67" s="43">
         <v>9</v>
       </c>
@@ -3971,14 +4394,14 @@
       <c r="I67" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J67" s="87"/>
+      <c r="J67" s="94"/>
     </row>
     <row r="68" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="91"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="99"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="109"/>
       <c r="F68" s="43">
         <v>10</v>
       </c>
@@ -3989,14 +4412,14 @@
       <c r="I68" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J68" s="87"/>
+      <c r="J68" s="94"/>
     </row>
     <row r="69" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="91"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="99"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="109"/>
       <c r="F69" s="43">
         <v>11</v>
       </c>
@@ -4007,22 +4430,22 @@
       <c r="I69" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="J69" s="88"/>
+      <c r="J69" s="95"/>
     </row>
     <row r="70" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="90">
+      <c r="A70" s="97">
         <v>1</v>
       </c>
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="94" t="s">
+      <c r="C70" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="96" t="s">
+      <c r="E70" s="90" t="s">
         <v>142</v>
       </c>
       <c r="F70" s="43">
@@ -4035,14 +4458,14 @@
       <c r="I70" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J70" s="86"/>
+      <c r="J70" s="110"/>
     </row>
     <row r="71" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="91"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="91"/>
+      <c r="E71" s="91"/>
       <c r="F71" s="43">
         <v>2</v>
       </c>
@@ -4053,14 +4476,14 @@
       <c r="I71" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="J71" s="87"/>
+      <c r="J71" s="94"/>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="91"/>
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="91"/>
+      <c r="E72" s="91"/>
       <c r="F72" s="43">
         <v>3</v>
       </c>
@@ -4073,14 +4496,14 @@
       <c r="I72" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J72" s="87"/>
+      <c r="J72" s="94"/>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="44"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
       <c r="F73" s="43">
         <v>4</v>
       </c>
@@ -4091,14 +4514,14 @@
       <c r="I73" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J73" s="87"/>
+      <c r="J73" s="94"/>
     </row>
     <row r="74" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="44"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
       <c r="F74" s="43">
         <v>5</v>
       </c>
@@ -4109,14 +4532,14 @@
       <c r="I74" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J74" s="87"/>
+      <c r="J74" s="94"/>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="44"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="102"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="100"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
       <c r="F75" s="43">
         <v>6</v>
       </c>
@@ -4127,20 +4550,20 @@
       <c r="I75" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="J75" s="88"/>
+      <c r="J75" s="95"/>
     </row>
     <row r="76" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="90">
+      <c r="A76" s="97">
         <v>1</v>
       </c>
-      <c r="B76" s="95"/>
-      <c r="C76" s="94" t="s">
+      <c r="B76" s="87"/>
+      <c r="C76" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="D76" s="105" t="s">
+      <c r="D76" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="E76" s="96" t="s">
+      <c r="E76" s="90" t="s">
         <v>142</v>
       </c>
       <c r="F76" s="43">
@@ -4153,14 +4576,14 @@
       <c r="I76" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J76" s="86"/>
+      <c r="J76" s="110"/>
     </row>
     <row r="77" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="97"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="91"/>
       <c r="F77" s="43">
         <v>2</v>
       </c>
@@ -4171,14 +4594,14 @@
       <c r="I77" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="J77" s="87"/>
+      <c r="J77" s="94"/>
     </row>
     <row r="78" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="97"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="91"/>
       <c r="F78" s="43">
         <v>3</v>
       </c>
@@ -4191,14 +4614,14 @@
       <c r="I78" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="J78" s="87"/>
+      <c r="J78" s="94"/>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="91"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="97"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="87"/>
+      <c r="D79" s="102"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="43">
         <v>4</v>
       </c>
@@ -4211,14 +4634,14 @@
       <c r="I79" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="J79" s="87"/>
+      <c r="J79" s="94"/>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="91"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="97"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="102"/>
+      <c r="E80" s="91"/>
       <c r="F80" s="43">
         <v>5</v>
       </c>
@@ -4229,14 +4652,14 @@
       <c r="I80" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J80" s="87"/>
-    </row>
-    <row r="81" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="91"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="97"/>
+      <c r="J80" s="94"/>
+    </row>
+    <row r="81" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="98"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="87"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="91"/>
       <c r="F81" s="43">
         <v>6</v>
       </c>
@@ -4247,14 +4670,14 @@
       <c r="I81" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J81" s="87"/>
-    </row>
-    <row r="82" spans="1:10" s="38" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="108"/>
+      <c r="J81" s="94"/>
+    </row>
+    <row r="82" spans="1:11" s="38" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="98"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="103"/>
+      <c r="E82" s="92"/>
       <c r="F82" s="43">
         <v>7</v>
       </c>
@@ -4265,22 +4688,22 @@
       <c r="I82" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="J82" s="89"/>
-    </row>
-    <row r="83" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="90">
+      <c r="J82" s="111"/>
+    </row>
+    <row r="83" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="112">
         <v>1</v>
       </c>
-      <c r="B83" s="112" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="D83" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="E83" s="96" t="s">
+      <c r="B83" s="117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="90" t="s">
         <v>142</v>
       </c>
       <c r="F83" s="43">
@@ -4293,14 +4716,14 @@
       <c r="I83" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J83" s="113"/>
-    </row>
-    <row r="84" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="91"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
+      <c r="J83" s="93"/>
+    </row>
+    <row r="84" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="113"/>
+      <c r="B84" s="118"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="91"/>
+      <c r="E84" s="91"/>
       <c r="F84" s="43">
         <v>2</v>
       </c>
@@ -4311,14 +4734,14 @@
       <c r="I84" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="J84" s="87"/>
-    </row>
-    <row r="85" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="91"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
+      <c r="J84" s="94"/>
+    </row>
+    <row r="85" spans="1:11" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="113"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="98"/>
+      <c r="D85" s="91"/>
+      <c r="E85" s="91"/>
       <c r="F85" s="43">
         <v>3</v>
       </c>
@@ -4331,14 +4754,14 @@
       <c r="I85" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J85" s="87"/>
-    </row>
-    <row r="86" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="48"/>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
+      <c r="J85" s="94"/>
+    </row>
+    <row r="86" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="114"/>
+      <c r="B86" s="118"/>
+      <c r="C86" s="98"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="91"/>
       <c r="F86" s="43">
         <v>4</v>
       </c>
@@ -4349,14 +4772,14 @@
       <c r="I86" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="J86" s="87"/>
-    </row>
-    <row r="87" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="48"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="97"/>
+      <c r="J86" s="94"/>
+    </row>
+    <row r="87" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="114"/>
+      <c r="B87" s="118"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="91"/>
+      <c r="E87" s="91"/>
       <c r="F87" s="43">
         <v>5</v>
       </c>
@@ -4367,14 +4790,14 @@
       <c r="I87" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="J87" s="87"/>
-    </row>
-    <row r="88" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="48"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="103"/>
+      <c r="J87" s="94"/>
+    </row>
+    <row r="88" spans="1:11" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="114"/>
+      <c r="B88" s="118"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="91"/>
+      <c r="E88" s="99"/>
       <c r="F88" s="43">
         <v>6</v>
       </c>
@@ -4385,16 +4808,16 @@
       <c r="I88" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="J88" s="87"/>
-    </row>
-    <row r="89" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="109">
+      <c r="J88" s="94"/>
+    </row>
+    <row r="89" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="115">
         <v>1</v>
       </c>
-      <c r="B89" s="95"/>
-      <c r="C89" s="95"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="110" t="s">
+      <c r="B89" s="118"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="91"/>
+      <c r="E89" s="96" t="s">
         <v>171</v>
       </c>
       <c r="F89" s="43">
@@ -4407,14 +4830,14 @@
       <c r="I89" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J89" s="87"/>
-    </row>
-    <row r="90" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="109"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="95"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="110"/>
+      <c r="J89" s="94"/>
+    </row>
+    <row r="90" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="115"/>
+      <c r="B90" s="118"/>
+      <c r="C90" s="98"/>
+      <c r="D90" s="91"/>
+      <c r="E90" s="96"/>
       <c r="F90" s="43">
         <v>8</v>
       </c>
@@ -4424,17 +4847,17 @@
       <c r="H90" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I90" s="111" t="s">
+      <c r="I90" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="J90" s="87"/>
-    </row>
-    <row r="91" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="109"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="104"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="110"/>
+      <c r="J90" s="94"/>
+    </row>
+    <row r="91" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="115"/>
+      <c r="B91" s="119"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="96"/>
       <c r="F91" s="43">
         <v>9</v>
       </c>
@@ -4442,32 +4865,1338 @@
         <v>177</v>
       </c>
       <c r="H91" s="31"/>
-      <c r="I91" s="111"/>
-      <c r="J91" s="88"/>
-    </row>
-    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="45"/>
-      <c r="E92" s="47"/>
+      <c r="I91" s="86"/>
+      <c r="J91" s="94"/>
+    </row>
+    <row r="92" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="97">
+        <v>1</v>
+      </c>
+      <c r="B92" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="90" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="F92" s="43">
+        <v>1</v>
+      </c>
+      <c r="G92" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H92" s="37"/>
+      <c r="I92" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J92" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="98"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="91"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="43">
+        <v>2</v>
+      </c>
+      <c r="G93" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H93" s="39"/>
+      <c r="I93" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J93" s="122"/>
+      <c r="K93" s="126"/>
+    </row>
+    <row r="94" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="98"/>
+      <c r="B94" s="107"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="91"/>
+      <c r="E94" s="109"/>
+      <c r="F94" s="43">
+        <v>3</v>
+      </c>
+      <c r="G94" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="39"/>
+      <c r="I94" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J94" s="122"/>
+    </row>
+    <row r="95" spans="1:11" s="5" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="98"/>
+      <c r="B95" s="107"/>
+      <c r="C95" s="87"/>
+      <c r="D95" s="91"/>
+      <c r="E95" s="109"/>
+      <c r="F95" s="43">
+        <v>4</v>
+      </c>
+      <c r="G95" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H95" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" s="32"/>
+      <c r="J95" s="122"/>
+    </row>
+    <row r="96" spans="1:11" s="5" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="98"/>
+      <c r="B96" s="107"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="91"/>
+      <c r="E96" s="109"/>
+      <c r="F96" s="43">
+        <v>6</v>
+      </c>
+      <c r="G96" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="H96" s="39"/>
+      <c r="I96" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J96" s="122"/>
+    </row>
+    <row r="97" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="98"/>
+      <c r="B97" s="107"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="91"/>
+      <c r="E97" s="109"/>
+      <c r="F97" s="43">
+        <v>7</v>
+      </c>
+      <c r="G97" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I97" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J97" s="122"/>
+    </row>
+    <row r="98" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="98"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="91"/>
+      <c r="E98" s="109"/>
+      <c r="F98" s="43">
+        <v>8</v>
+      </c>
+      <c r="G98" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H98" s="39"/>
+      <c r="I98" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J98" s="122"/>
+    </row>
+    <row r="99" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="98"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="87"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="109"/>
+      <c r="F99" s="43">
+        <v>9</v>
+      </c>
+      <c r="G99" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H99" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I99" s="32"/>
+      <c r="J99" s="122"/>
+    </row>
+    <row r="100" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="98"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="91"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="43">
+        <v>10</v>
+      </c>
+      <c r="G100" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H100" s="39"/>
+      <c r="I100" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" s="122"/>
+    </row>
+    <row r="101" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="97">
+        <v>1</v>
+      </c>
+      <c r="B101" s="107"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F101" s="43">
+        <v>1</v>
+      </c>
+      <c r="G101" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H101" s="37"/>
+      <c r="I101" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J101" s="122"/>
+    </row>
+    <row r="102" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="98"/>
+      <c r="B102" s="107"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="91"/>
+      <c r="E102" s="109"/>
+      <c r="F102" s="43">
+        <v>2</v>
+      </c>
+      <c r="G102" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J102" s="122"/>
+    </row>
+    <row r="103" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="98"/>
+      <c r="B103" s="107"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="91"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="43">
+        <v>3</v>
+      </c>
+      <c r="G103" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H103" s="39"/>
+      <c r="I103" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="J103" s="122"/>
+    </row>
+    <row r="104" spans="1:11" s="5" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="116"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="124"/>
+      <c r="F104" s="43">
+        <v>4</v>
+      </c>
+      <c r="G104" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="H104" s="50"/>
+      <c r="I104" s="125" t="s">
+        <v>214</v>
+      </c>
+      <c r="J104" s="123"/>
+    </row>
+    <row r="105" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="112">
+        <v>1</v>
+      </c>
+      <c r="B105" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="D105" s="128" t="s">
+        <v>180</v>
+      </c>
+      <c r="E105" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" s="43">
+        <v>1</v>
+      </c>
+      <c r="G105" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H105" s="37"/>
+      <c r="I105" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J105" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="113"/>
+      <c r="B106" s="132"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="91"/>
+      <c r="E106" s="109"/>
+      <c r="F106" s="43">
+        <v>2</v>
+      </c>
+      <c r="G106" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J106" s="122"/>
+      <c r="K106" s="134"/>
+    </row>
+    <row r="107" spans="1:11" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="113"/>
+      <c r="B107" s="132"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="91"/>
+      <c r="E107" s="109"/>
+      <c r="F107" s="43">
+        <v>3</v>
+      </c>
+      <c r="G107" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="J107" s="122"/>
+    </row>
+    <row r="108" spans="1:11" s="5" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="113"/>
+      <c r="B108" s="132"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="91"/>
+      <c r="E108" s="109"/>
+      <c r="F108" s="43">
+        <v>4</v>
+      </c>
+      <c r="G108" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="H108" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I108" s="32"/>
+      <c r="J108" s="122"/>
+    </row>
+    <row r="109" spans="1:11" s="5" customFormat="1" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="113"/>
+      <c r="B109" s="132"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="91"/>
+      <c r="E109" s="109"/>
+      <c r="F109" s="43">
+        <v>6</v>
+      </c>
+      <c r="G109" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="H109" s="39"/>
+      <c r="I109" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J109" s="122"/>
+    </row>
+    <row r="110" spans="1:11" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="113"/>
+      <c r="B110" s="132"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="91"/>
+      <c r="E110" s="109"/>
+      <c r="F110" s="43">
+        <v>7</v>
+      </c>
+      <c r="G110" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="I110" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="J110" s="122"/>
+    </row>
+    <row r="111" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="113"/>
+      <c r="B111" s="132"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="91"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="43">
+        <v>8</v>
+      </c>
+      <c r="G111" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J111" s="122"/>
+    </row>
+    <row r="112" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="113"/>
+      <c r="B112" s="132"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="43">
+        <v>9</v>
+      </c>
+      <c r="G112" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="I112" s="32"/>
+      <c r="J112" s="122"/>
+    </row>
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="113"/>
+      <c r="B113" s="132"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="109"/>
+      <c r="F113" s="43">
+        <v>10</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" s="122"/>
+    </row>
+    <row r="114" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="112">
+        <v>1</v>
+      </c>
+      <c r="B114" s="132"/>
+      <c r="C114" s="98"/>
+      <c r="D114" s="91"/>
+      <c r="E114" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" s="43">
+        <v>1</v>
+      </c>
+      <c r="G114" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H114" s="37"/>
+      <c r="I114" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J114" s="122"/>
+    </row>
+    <row r="115" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="113"/>
+      <c r="B115" s="132"/>
+      <c r="C115" s="98"/>
+      <c r="D115" s="91"/>
+      <c r="E115" s="109"/>
+      <c r="F115" s="43">
+        <v>2</v>
+      </c>
+      <c r="G115" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H115" s="39"/>
+      <c r="I115" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J115" s="122"/>
+    </row>
+    <row r="116" spans="1:10" s="5" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="129"/>
+      <c r="B116" s="133"/>
+      <c r="C116" s="116"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="124"/>
+      <c r="F116" s="43">
+        <v>3</v>
+      </c>
+      <c r="G116" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="H116" s="50"/>
+      <c r="I116" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="J116" s="123"/>
+    </row>
+    <row r="117" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="97">
+        <v>1</v>
+      </c>
+      <c r="B117" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="89" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="E117" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="43">
+        <v>1</v>
+      </c>
+      <c r="G117" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="H117" s="37"/>
+      <c r="I117" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J117" s="121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="98"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="87"/>
+      <c r="D118" s="91"/>
+      <c r="E118" s="109"/>
+      <c r="F118" s="43">
+        <v>2</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H118" s="39"/>
+      <c r="I118" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="J118" s="122"/>
+    </row>
+    <row r="119" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="98"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="109"/>
+      <c r="F119" s="43">
+        <v>3</v>
+      </c>
+      <c r="G119" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="H119" s="39"/>
+      <c r="I119" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J119" s="122"/>
+    </row>
+    <row r="120" spans="1:10" s="5" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="98"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="87"/>
+      <c r="D120" s="91"/>
+      <c r="E120" s="109"/>
+      <c r="F120" s="43">
+        <v>4</v>
+      </c>
+      <c r="G120" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="H120" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I120" s="32"/>
+      <c r="J120" s="122"/>
+    </row>
+    <row r="121" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="98"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="109"/>
+      <c r="F121" s="43">
+        <v>5</v>
+      </c>
+      <c r="G121" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J121" s="122"/>
+    </row>
+    <row r="122" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="98"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="87"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="109"/>
+      <c r="F122" s="43">
+        <v>6</v>
+      </c>
+      <c r="G122" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="I122" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J122" s="122"/>
+    </row>
+    <row r="123" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="98"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="109"/>
+      <c r="F123" s="43">
+        <v>7</v>
+      </c>
+      <c r="G123" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="J123" s="122"/>
+    </row>
+    <row r="124" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="98"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="87"/>
+      <c r="D124" s="91"/>
+      <c r="E124" s="109"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="H124" s="39"/>
+      <c r="I124" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J124" s="122"/>
+    </row>
+    <row r="125" spans="1:10" s="5" customFormat="1" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="98"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="87"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="109"/>
+      <c r="F125" s="43">
+        <v>8</v>
+      </c>
+      <c r="G125" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H125" s="39"/>
+      <c r="I125" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="J125" s="122"/>
+    </row>
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="97">
+        <v>1</v>
+      </c>
+      <c r="B126" s="107"/>
+      <c r="C126" s="87"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F126" s="43">
+        <v>1</v>
+      </c>
+      <c r="G126" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H126" s="37"/>
+      <c r="I126" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="J126" s="122"/>
+    </row>
+    <row r="127" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="98"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="87"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="109"/>
+      <c r="F127" s="43">
+        <v>2</v>
+      </c>
+      <c r="G127" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H127" s="39"/>
+      <c r="I127" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J127" s="123"/>
+    </row>
+    <row r="128" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="97"/>
+      <c r="B128" s="136" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="E128" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="F128" s="43">
+        <v>1</v>
+      </c>
+      <c r="G128" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J128" s="138" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="98"/>
+      <c r="B129" s="137"/>
+      <c r="C129" s="87"/>
+      <c r="D129" s="91"/>
+      <c r="E129" s="91"/>
+      <c r="F129" s="43">
+        <v>2</v>
+      </c>
+      <c r="G129" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="J129" s="139"/>
+    </row>
+    <row r="130" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="98"/>
+      <c r="B130" s="137"/>
+      <c r="C130" s="87"/>
+      <c r="D130" s="91"/>
+      <c r="E130" s="91"/>
+      <c r="F130" s="43">
+        <v>3</v>
+      </c>
+      <c r="G130" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J130" s="139"/>
+    </row>
+    <row r="131" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="98"/>
+      <c r="B131" s="137"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="91"/>
+      <c r="E131" s="91"/>
+      <c r="F131" s="43">
+        <v>4</v>
+      </c>
+      <c r="G131" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="139"/>
+    </row>
+    <row r="132" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="98"/>
+      <c r="B132" s="137"/>
+      <c r="C132" s="87"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="43">
+        <v>5</v>
+      </c>
+      <c r="G132" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="H132" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="139"/>
+    </row>
+    <row r="133" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="98"/>
+      <c r="B133" s="137"/>
+      <c r="C133" s="87"/>
+      <c r="D133" s="91"/>
+      <c r="E133" s="91"/>
+      <c r="F133" s="43">
+        <v>6</v>
+      </c>
+      <c r="G133" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="J133" s="139"/>
+    </row>
+    <row r="134" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="114"/>
+      <c r="B134" s="137"/>
+      <c r="C134" s="87"/>
+      <c r="D134" s="91"/>
+      <c r="E134" s="91"/>
+      <c r="F134" s="43">
+        <v>7</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" s="139"/>
+    </row>
+    <row r="135" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="114"/>
+      <c r="B135" s="137"/>
+      <c r="C135" s="87"/>
+      <c r="D135" s="91"/>
+      <c r="E135" s="91"/>
+      <c r="F135" s="43">
+        <v>8</v>
+      </c>
+      <c r="G135" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J135" s="139"/>
+    </row>
+    <row r="136" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="114"/>
+      <c r="B136" s="137"/>
+      <c r="C136" s="87"/>
+      <c r="D136" s="91"/>
+      <c r="E136" s="91"/>
+      <c r="F136" s="43">
+        <v>9</v>
+      </c>
+      <c r="G136" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J136" s="139"/>
+    </row>
+    <row r="137" spans="1:10" s="5" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="114"/>
+      <c r="B137" s="137"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="91"/>
+      <c r="E137" s="91"/>
+      <c r="F137" s="43">
+        <v>10</v>
+      </c>
+      <c r="G137" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H137" s="135" t="s">
+        <v>243</v>
+      </c>
+      <c r="I137" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="J137" s="139"/>
+    </row>
+    <row r="138" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="97"/>
+      <c r="B138" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="D138" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="F138" s="43">
+        <v>1</v>
+      </c>
+      <c r="G138" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H138" s="37"/>
+      <c r="I138" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J138" s="110"/>
+    </row>
+    <row r="139" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="98"/>
+      <c r="B139" s="137"/>
+      <c r="C139" s="87"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="91"/>
+      <c r="F139" s="43">
+        <v>2</v>
+      </c>
+      <c r="G139" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="J139" s="94"/>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="98"/>
+      <c r="B140" s="137"/>
+      <c r="C140" s="87"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="91"/>
+      <c r="F140" s="43">
+        <v>3</v>
+      </c>
+      <c r="G140" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="J140" s="94"/>
+    </row>
+    <row r="141" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="98"/>
+      <c r="B141" s="137"/>
+      <c r="C141" s="87"/>
+      <c r="D141" s="91"/>
+      <c r="E141" s="91"/>
+      <c r="F141" s="43">
+        <v>4</v>
+      </c>
+      <c r="G141" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="94"/>
+    </row>
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="98"/>
+      <c r="B142" s="137"/>
+      <c r="C142" s="87"/>
+      <c r="D142" s="91"/>
+      <c r="E142" s="91"/>
+      <c r="F142" s="43">
+        <v>5</v>
+      </c>
+      <c r="G142" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="H142" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="I142" s="39"/>
+      <c r="J142" s="94"/>
+    </row>
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="98"/>
+      <c r="B143" s="137"/>
+      <c r="C143" s="87"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="91"/>
+      <c r="F143" s="43">
+        <v>6</v>
+      </c>
+      <c r="G143" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="J143" s="95"/>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="114"/>
+      <c r="B144" s="137"/>
+      <c r="C144" s="87"/>
+      <c r="D144" s="91"/>
+      <c r="E144" s="91"/>
+      <c r="F144" s="43">
+        <v>7</v>
+      </c>
+      <c r="G144" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J144" s="42"/>
+    </row>
+    <row r="145" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="114"/>
+      <c r="B145" s="137"/>
+      <c r="C145" s="87"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="91"/>
+      <c r="F145" s="43">
+        <v>8</v>
+      </c>
+      <c r="G145" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J145" s="42"/>
+    </row>
+    <row r="146" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="114"/>
+      <c r="B146" s="137"/>
+      <c r="C146" s="87"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="91"/>
+      <c r="F146" s="43">
+        <v>9</v>
+      </c>
+      <c r="G146" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J146" s="42"/>
+    </row>
+    <row r="147" spans="1:10" s="5" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="114"/>
+      <c r="B147" s="137"/>
+      <c r="C147" s="87"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="91"/>
+      <c r="F147" s="43">
+        <v>10</v>
+      </c>
+      <c r="G147" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H147" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="I147" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="J147" s="42"/>
+    </row>
+    <row r="148" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="97">
+        <v>1</v>
+      </c>
+      <c r="B148" s="136" t="s">
+        <v>219</v>
+      </c>
+      <c r="C148" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D148" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="E148" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F148" s="43">
+        <v>1</v>
+      </c>
+      <c r="G148" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H148" s="37"/>
+      <c r="I148" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J148" s="110" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="98"/>
+      <c r="B149" s="137"/>
+      <c r="C149" s="87"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="91"/>
+      <c r="F149" s="43">
+        <v>2</v>
+      </c>
+      <c r="G149" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J149" s="94"/>
+    </row>
+    <row r="150" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="98"/>
+      <c r="B150" s="137"/>
+      <c r="C150" s="87"/>
+      <c r="D150" s="91"/>
+      <c r="E150" s="91"/>
+      <c r="F150" s="43">
+        <v>3</v>
+      </c>
+      <c r="G150" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="J150" s="94"/>
+    </row>
+    <row r="151" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="98"/>
+      <c r="B151" s="137"/>
+      <c r="C151" s="87"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="91"/>
+      <c r="F151" s="43">
+        <v>4</v>
+      </c>
+      <c r="G151" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J151" s="94"/>
+    </row>
+    <row r="152" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="98"/>
+      <c r="B152" s="137"/>
+      <c r="C152" s="87"/>
+      <c r="D152" s="91"/>
+      <c r="E152" s="91"/>
+      <c r="F152" s="43">
+        <v>5</v>
+      </c>
+      <c r="G152" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="J152" s="95"/>
+    </row>
+    <row r="153" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="114"/>
+      <c r="B153" s="137"/>
+      <c r="C153" s="87"/>
+      <c r="D153" s="91"/>
+      <c r="E153" s="91"/>
+      <c r="F153" s="43">
+        <v>7</v>
+      </c>
+      <c r="G153" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J153" s="42"/>
+    </row>
+    <row r="154" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="114"/>
+      <c r="B154" s="137"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="91"/>
+      <c r="F154" s="43">
+        <v>8</v>
+      </c>
+      <c r="G154" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J154" s="42"/>
+    </row>
+    <row r="155" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="114"/>
+      <c r="B155" s="137"/>
+      <c r="C155" s="87"/>
+      <c r="D155" s="91"/>
+      <c r="E155" s="91"/>
+      <c r="F155" s="43">
+        <v>9</v>
+      </c>
+      <c r="G155" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J155" s="42"/>
+    </row>
+    <row r="156" spans="1:10" s="5" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="114"/>
+      <c r="B156" s="137"/>
+      <c r="C156" s="87"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="91"/>
+      <c r="F156" s="43">
+        <v>10</v>
+      </c>
+      <c r="G156" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="H156" s="135"/>
+      <c r="I156" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="J156" s="42"/>
+    </row>
+    <row r="157" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="45"/>
+      <c r="E157" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="B83:B91"/>
-    <mergeCell ref="C83:C91"/>
-    <mergeCell ref="D83:D91"/>
-    <mergeCell ref="J83:J91"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="B70:B82"/>
-    <mergeCell ref="C76:C82"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="E76:E82"/>
+  <mergeCells count="100">
+    <mergeCell ref="J148:J152"/>
+    <mergeCell ref="B148:B156"/>
+    <mergeCell ref="C148:C156"/>
+    <mergeCell ref="D148:D156"/>
+    <mergeCell ref="E148:E156"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="J138:J143"/>
+    <mergeCell ref="B138:B147"/>
+    <mergeCell ref="C138:C147"/>
+    <mergeCell ref="D138:D147"/>
+    <mergeCell ref="E138:E147"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="B128:B137"/>
+    <mergeCell ref="C128:C137"/>
+    <mergeCell ref="D128:D137"/>
+    <mergeCell ref="E128:E137"/>
+    <mergeCell ref="J128:J137"/>
+    <mergeCell ref="A128:A133"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="B117:B127"/>
+    <mergeCell ref="C117:C127"/>
+    <mergeCell ref="J117:J127"/>
+    <mergeCell ref="D117:D127"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="C105:C116"/>
+    <mergeCell ref="D105:D116"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="J105:J116"/>
+    <mergeCell ref="A105:A113"/>
+    <mergeCell ref="E105:E113"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="D92:D104"/>
+    <mergeCell ref="C92:C104"/>
+    <mergeCell ref="B92:B104"/>
+    <mergeCell ref="J92:J104"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="E92:E100"/>
+    <mergeCell ref="J59:J69"/>
+    <mergeCell ref="J70:J75"/>
+    <mergeCell ref="J76:J82"/>
+    <mergeCell ref="J5:J14"/>
+    <mergeCell ref="J15:J27"/>
+    <mergeCell ref="J28:J39"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="J48:J58"/>
+    <mergeCell ref="A59:A69"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="C59:C69"/>
+    <mergeCell ref="D59:D69"/>
+    <mergeCell ref="E59:E69"/>
+    <mergeCell ref="A48:A58"/>
+    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="C48:C58"/>
+    <mergeCell ref="D48:D58"/>
+    <mergeCell ref="E48:E58"/>
+    <mergeCell ref="D28:D39"/>
+    <mergeCell ref="E28:E39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E40:E47"/>
     <mergeCell ref="A70:A72"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
@@ -4484,31 +6213,23 @@
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="B28:B39"/>
     <mergeCell ref="C28:C39"/>
-    <mergeCell ref="D28:D39"/>
-    <mergeCell ref="E28:E39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E40:E47"/>
-    <mergeCell ref="A48:A58"/>
-    <mergeCell ref="B48:B58"/>
-    <mergeCell ref="C48:C58"/>
-    <mergeCell ref="D48:D58"/>
-    <mergeCell ref="E48:E58"/>
-    <mergeCell ref="A59:A69"/>
-    <mergeCell ref="B59:B69"/>
-    <mergeCell ref="C59:C69"/>
-    <mergeCell ref="D59:D69"/>
-    <mergeCell ref="E59:E69"/>
-    <mergeCell ref="J59:J69"/>
-    <mergeCell ref="J70:J75"/>
-    <mergeCell ref="J76:J82"/>
-    <mergeCell ref="J5:J14"/>
-    <mergeCell ref="J15:J27"/>
-    <mergeCell ref="J28:J39"/>
-    <mergeCell ref="J40:J47"/>
-    <mergeCell ref="J48:J58"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="C76:C82"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="E76:E82"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="J83:J91"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
